--- a/biology/Botanique/Viticulture_en_Allemagne/Viticulture_en_Allemagne.xlsx
+++ b/biology/Botanique/Viticulture_en_Allemagne/Viticulture_en_Allemagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La viticulture en Allemagne est la culture de la vigne dans le pays Allemagne. Elle connaît une longue tradition. Comme dans toute l'Europe, les premiers vignobles y ont été plantés par les Romains, qui ont développé la culture de la vigne le long de la Moselle et du Rhin, puis à l'époque de l'empereur Charlemagne et durant tout le Moyen Âge. Ils se sont développés sur les coteaux escarpés des fleuves, essentiellement de la partie occidentale du pays[réf. souhaitée], sur les rives orientées au sud et protégées des vents.
 </t>
@@ -511,15 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un des lieux avec la plus longue tradition viticole en Allemagne est l'Abbaye d'Eberbach près d'Eltville, dans le Rheingau
-[1]. Des moines cisterciens venu de la Bourgogne s'y installèrent en 1136 et amenèrent le cépage du Pinot Noir. Depuis 1803 la viticulture dans le domaine fut continuée par des entités séculaires, d'abord par le duc de Nassau, depuis 1866 par la Prusse et depuis 1945 par le Land de la Hesse[2].
-Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine
-Pendant la période du Reichsland Elsass-Lothringen, de 1871 à 1918, l'Alsace était la plus grande région viticole allemande[3].
+. Des moines cisterciens venu de la Bourgogne s'y installèrent en 1136 et amenèrent le cépage du Pinot Noir. Depuis 1803 la viticulture dans le domaine fut continuée par des entités séculaires, d'abord par le duc de Nassau, depuis 1866 par la Prusse et depuis 1945 par le Land de la Hesse.
 </t>
         </is>
       </c>
@@ -545,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>La réglementation allemande</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Allemagne, pays membre de l'Union européenne, applique les règlements européens, qui supplantent la législation nationale.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la période du Reichsland Elsass-Lothringen, de 1871 à 1918, l'Alsace était la plus grande région viticole allemande.
 </t>
         </is>
       </c>
@@ -576,13 +591,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>La réglementation allemande</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Allemagne, pays membre de l'Union européenne, applique les règlements européens, qui supplantent la législation nationale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Allemagne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Allemagne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Les cépages cultivés en Allemagne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cépages de cuve
-La liste complète des cépages se présente comme suit
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cépages de cuve</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste complète des cépages se présente comme suit
 			Vignobles en coteaux sur le Rüdesheimer Berg dominant le Rhin (Rheingau)
 			Vignobles en coteaux dominant la Moselle, près d'Ürzig
 			Le Weinsberg entre Schemelsberg et Burgberg
@@ -591,33 +644,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Viticulture_en_Allemagne</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Viticulture_en_Allemagne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Les terroirs allemands</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les vignobles en Allemagne s'étendent sur 100 000 hectares dont 65 % sont réservés aux raisins blancs. Avec dix millions d'hectolitres produits en 2003, l'Allemagne est le 8e producteur mondial de vin et le 4e de l'Union européenne[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les vignobles en Allemagne s'étendent sur 100 000 hectares dont 65 % sont réservés aux raisins blancs. Avec dix millions d'hectolitres produits en 2003, l'Allemagne est le 8e producteur mondial de vin et le 4e de l'Union européenne.
 La fraîcheur des climats rend difficile l'obtention d'une maturité satisfaisante des raisins. L'emplacement des parcelles est donc primordial et ce sont en général des vins légers et fruités.
 Vignoble de l'Ahr, 430 ha au sud de Bonn, un des deux plus petits vignobles.
 Vignoble du Pays-de-Bade (Baden), de Heidelberg au lac de Constance, le plus méridional des vignobles.
@@ -635,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Viticulture_en_Allemagne</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Viticulture_en_Allemagne</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Définition des qualités de vin en Allemagne et en Autriche</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'organisation du marché du vin de l'UE connaît les désignations suivantes :
 Vin sans indication géographique
